--- a/Output/Output Files/INIS-061620-1794.xlsx
+++ b/Output/Output Files/INIS-061620-1794.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12435" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scan and Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scan and Data (2)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Scan and Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Scan and Data (2)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Map" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_2360" localSheetId="2">#REF!</definedName>
-    <definedName name="_2360" localSheetId="1">#REF!</definedName>
+    <definedName localSheetId="2" name="_2360">#REF!</definedName>
+    <definedName localSheetId="1" name="_2360">#REF!</definedName>
     <definedName name="_2360">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Scan and Data'!$A$1:$Y$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Scan and Data (2)'!$A$1:$Y$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Map'!$A$1:$Y$39</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Area">'Scan and Data'!$A$1:$Y$39</definedName>
+    <definedName localSheetId="1" name="_xlnm.Print_Area">'Scan and Data (2)'!$A$1:$Y$39</definedName>
+    <definedName localSheetId="2" name="_xlnm.Print_Area">'Map'!$A$1:$Y$39</definedName>
   </definedNames>
   <calcPr calcId="152511" fullCalcOnLoad="1"/>
 </workbook>
@@ -25,9 +25,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt formatCode="m/d/yy;@" numFmtId="164"/>
+    <numFmt formatCode="m/d/yyyy;@" numFmtId="165"/>
+    <numFmt formatCode="0.0" numFmtId="166"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -1593,1221 +1593,1221 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="378">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="40" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="41" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="29" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="30" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="31" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="37" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="38" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="40" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="41" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="40" fillId="2" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="41" fillId="2" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="52" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="56" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="59" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="60" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="61" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="62" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="63" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="63" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="38" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="65" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="66" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="67" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="66" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="68" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="69" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="70" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="71" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="72" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="70" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="64" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="73" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="74" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="65" fillId="2" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="66" fillId="2" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="67" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="66" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="68" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="69" fillId="2" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="70" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="71" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="72" fillId="2" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="70" fillId="3" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="64" fillId="3" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="73" fillId="3" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="74" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="41" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="36" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="76" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="67" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="77" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="78" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="77" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="67" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="75" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="79" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="80" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="77" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="81" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="76" fillId="2" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="67" fillId="2" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="77" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="78" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="77" fillId="2" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="67" fillId="3" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="75" fillId="3" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="79" fillId="3" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="80" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="77" fillId="3" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="81" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="43" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="83" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="84" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="84" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="85" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="86" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="85" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="84" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="82" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="87" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="83" fillId="2" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="84" fillId="2" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="84" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="85" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="86" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="85" fillId="2" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="84" fillId="3" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="82" fillId="3" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="87" fillId="3" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="51" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="49" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="50" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="45" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="17" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="51" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="52" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="91" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="91" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="90" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="90" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="45" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="45" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="45" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="51" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="49" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="49" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="49" fillId="0" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="45" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf applyAlignment="1" borderId="45" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf applyAlignment="1" borderId="45" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="45" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="45" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="45" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="45" fillId="0" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="45" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="51" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="49" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="49" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="49" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="49" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="62" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="58" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="75" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="75" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="36" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="82" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="82" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="14" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="43" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="64" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="64" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="2" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="33" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="32" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="33" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="34" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="53" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="54" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="55" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="32" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="33" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="35" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="57" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="36" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="43" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="43" fillId="0" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="43" fillId="0" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="43" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="36" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="36" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="36" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="22" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="46" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="47" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="46" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="48" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="47" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="49" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="50" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="43" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="36" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="36" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="36" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="36" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="36" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="36" fillId="2" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="36" fillId="2" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="2" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="36" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="36" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="36" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="1" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="36" fillId="2" fontId="1" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="2" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="28" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="29" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="92" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf applyAlignment="1" applyProtection="1" borderId="36" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="39" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="1" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="28" fillId="2" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="29" fillId="2" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="92" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="34" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="33" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf applyAlignment="1" borderId="34" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="33" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="35" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="2" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="16" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="14" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="23" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="24" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="27" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="2" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="3" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="88" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="88" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="44" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="89" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="89" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="90" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="90" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="17" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="2" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="3" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="97" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="97" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="97" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="97" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="37" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="100" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="100" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="93" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="93" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="93" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="93" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="99" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="99" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="93" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="44" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="89" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="93" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="94" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="95" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="96" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="108" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="109" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="111" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="90" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="94" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="95" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="25" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="96" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="27" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="31" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="33" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="34" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="108" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="109" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="35" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="111" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="111" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="111" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="101" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="102" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="101" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="102" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="104" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="41" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="101" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="19" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="20" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="36" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="104" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="1" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="28" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="29" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="41" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="101" fillId="2" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="40" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="41" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="101" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="101" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="41" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="114" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="99" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="114" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="40" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="41" fillId="2" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="101" fillId="2" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="41" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="101" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="41" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="114" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="43" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="99" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="114" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="115" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="116" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="108" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="112" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="113" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="115" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="46" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="47" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="116" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="108" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="112" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="54" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="55" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="113" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="68" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="68" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="78" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="78" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="86" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="86" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
+      <protection hidden="0" locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 4 2" xfId="2"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -3148,17 +3148,17 @@
   </sheetPr>
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="J2" sqref="J2:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col width="7.28515625" customWidth="1" style="1" min="1" max="25"/>
-    <col width="9.140625" customWidth="1" style="1" min="26" max="16384"/>
+    <col customWidth="1" max="25" min="1" style="1" width="7.28515625"/>
+    <col customWidth="1" max="16384" min="26" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="18" r="1" thickTop="1">
       <c r="A1" s="306" t="inlineStr">
         <is>
           <t>Survey Number</t>
@@ -3201,7 +3201,7 @@
       <c r="X1" s="69" t="n"/>
       <c r="Y1" s="70" t="n"/>
     </row>
-    <row r="2" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="2">
       <c r="A2" s="313" t="inlineStr">
         <is>
           <t>Date Surveyed</t>
@@ -3237,7 +3237,7 @@
       <c r="X2" s="65" t="n"/>
       <c r="Y2" s="71" t="n"/>
     </row>
-    <row r="3" ht="18" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="18" r="3" thickBot="1">
       <c r="A3" s="313" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -3272,7 +3272,7 @@
       <c r="X3" s="67" t="n"/>
       <c r="Y3" s="72" t="n"/>
     </row>
-    <row r="4" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="4" thickBot="1" thickTop="1">
       <c r="A4" s="313" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -3311,7 +3311,7 @@
       <c r="X4" s="322" t="n"/>
       <c r="Y4" s="324" t="n"/>
     </row>
-    <row r="5" ht="18" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="18" r="5" thickTop="1">
       <c r="A5" s="313" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -3356,7 +3356,7 @@
       <c r="X5" s="328" t="n"/>
       <c r="Y5" s="330" t="n"/>
     </row>
-    <row r="6" ht="18" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="18" r="6" thickBot="1">
       <c r="A6" s="313" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -3415,7 +3415,7 @@
       <c r="X6" s="332" t="n"/>
       <c r="Y6" s="336" t="n"/>
     </row>
-    <row r="7" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="7" thickBot="1" thickTop="1">
       <c r="A7" s="337" t="inlineStr">
         <is>
           <t>Level Of Posting</t>
@@ -3469,7 +3469,7 @@
       <c r="X7" s="314" t="n"/>
       <c r="Y7" s="315" t="n"/>
     </row>
-    <row r="8" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="8" thickBot="1" thickTop="1">
       <c r="A8" s="342" t="inlineStr">
         <is>
           <t>Building Material Background - cpm</t>
@@ -3526,7 +3526,7 @@
       <c r="X8" s="314" t="n"/>
       <c r="Y8" s="315" t="n"/>
     </row>
-    <row r="9" ht="18" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="18" r="9" thickTop="1">
       <c r="A9" s="310" t="inlineStr">
         <is>
           <t>Brick</t>
@@ -3575,7 +3575,7 @@
       <c r="X9" s="314" t="n"/>
       <c r="Y9" s="315" t="n"/>
     </row>
-    <row r="10" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="10">
       <c r="A10" s="351" t="inlineStr">
         <is>
           <t>Concrete</t>
@@ -3626,7 +3626,7 @@
       <c r="X10" s="314" t="n"/>
       <c r="Y10" s="315" t="n"/>
     </row>
-    <row r="11" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="11">
       <c r="A11" s="351" t="inlineStr">
         <is>
           <t>Linoleum</t>
@@ -3677,7 +3677,7 @@
       <c r="X11" s="314" t="n"/>
       <c r="Y11" s="315" t="n"/>
     </row>
-    <row r="12" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="12">
       <c r="A12" s="351" t="inlineStr">
         <is>
           <t>Drywall</t>
@@ -3724,7 +3724,7 @@
       <c r="X12" s="314" t="n"/>
       <c r="Y12" s="315" t="n"/>
     </row>
-    <row r="13" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="13">
       <c r="A13" s="351" t="inlineStr">
         <is>
           <t>Metal</t>
@@ -3771,7 +3771,7 @@
       <c r="X13" s="314" t="n"/>
       <c r="Y13" s="315" t="n"/>
     </row>
-    <row r="14" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="14">
       <c r="A14" s="351" t="inlineStr">
         <is>
           <t>Ceiling Tile</t>
@@ -3818,7 +3818,7 @@
       <c r="X14" s="314" t="n"/>
       <c r="Y14" s="315" t="n"/>
     </row>
-    <row r="15" ht="18" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="18" r="15" thickBot="1">
       <c r="A15" s="351" t="inlineStr">
         <is>
           <t>Wood</t>
@@ -3871,7 +3871,7 @@
       <c r="X15" s="338" t="n"/>
       <c r="Y15" s="339" t="n"/>
     </row>
-    <row r="16" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="16" thickBot="1" thickTop="1">
       <c r="A16" s="364" t="inlineStr">
         <is>
           <t>Asphalt</t>
@@ -3918,7 +3918,7 @@
       <c r="X16" s="367" t="n"/>
       <c r="Y16" s="327" t="n"/>
     </row>
-    <row r="17" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="17" thickBot="1" thickTop="1">
       <c r="A17" s="73" t="inlineStr">
         <is>
           <t>Note</t>
@@ -3977,7 +3977,7 @@
       <c r="X17" s="332" t="n"/>
       <c r="Y17" s="336" t="n"/>
     </row>
-    <row r="18" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="18" thickBot="1" thickTop="1">
       <c r="A18" s="73" t="n"/>
       <c r="B18" s="172" t="n"/>
       <c r="C18" s="172" t="n"/>
@@ -4004,7 +4004,7 @@
       <c r="X18" s="81" t="n"/>
       <c r="Y18" s="82" t="n"/>
     </row>
-    <row r="19" ht="49.9" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="49.9" r="19" thickBot="1" thickTop="1">
       <c r="A19" s="16" t="inlineStr">
         <is>
           <t>No</t>
@@ -4111,7 +4111,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="19.9" customFormat="1" customHeight="1" s="38" thickTop="1">
+    <row customFormat="1" customHeight="1" ht="19.9" r="20" s="38" thickTop="1">
       <c r="A20" s="23" t="n">
         <v>1</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="21" s="38">
       <c r="A21" s="39" t="n">
         <v>2</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="22" s="38">
       <c r="A22" s="50" t="n">
         <v>3</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="23" s="38">
       <c r="A23" s="39" t="n">
         <v>4</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="24" s="38">
       <c r="A24" s="50" t="n">
         <v>5</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="25" s="38">
       <c r="A25" s="39" t="n">
         <v>6</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="26" s="38">
       <c r="A26" s="50" t="n">
         <v>7</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="27" s="38">
       <c r="A27" s="39" t="n">
         <v>8</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="28" s="38">
       <c r="A28" s="50" t="n">
         <v>9</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="29" s="38">
       <c r="A29" s="39" t="n">
         <v>10</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="30" s="38">
       <c r="A30" s="50" t="n">
         <v>11</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="31" s="38">
       <c r="A31" s="39" t="n">
         <v>12</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="32" s="38">
       <c r="A32" s="50" t="n">
         <v>13</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="33" s="38">
       <c r="A33" s="39" t="n">
         <v>14</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="34" s="38">
       <c r="A34" s="50" t="n">
         <v>15</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="35" s="38">
       <c r="A35" s="39" t="n">
         <v>16</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="36" s="38">
       <c r="A36" s="50" t="n">
         <v>17</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="37" s="38">
       <c r="A37" s="39" t="n">
         <v>18</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="38" s="38">
       <c r="A38" s="50" t="n">
         <v>19</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" ht="19.9" customFormat="1" customHeight="1" s="38" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="19.9" r="39" s="38" thickBot="1">
       <c r="A39" s="52" t="n">
         <v>20</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" ht="13.5" customHeight="1" thickTop="1"/>
+    <row customHeight="1" ht="13.5" r="40" thickTop="1"/>
   </sheetData>
   <mergeCells count="112">
     <mergeCell ref="A4:C4"/>
@@ -5728,8 +5728,8 @@
     <mergeCell ref="B25:G25"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
-  <pageSetup orientation="landscape" scale="75" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0" header="0" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape" scale="75"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
@@ -5749,17 +5749,17 @@
   </sheetPr>
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="D1" sqref="D1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col width="7.28515625" customWidth="1" style="1" min="1" max="25"/>
-    <col width="9.140625" customWidth="1" style="1" min="26" max="16384"/>
+    <col customWidth="1" max="25" min="1" style="1" width="7.28515625"/>
+    <col customWidth="1" max="16384" min="26" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="18" r="1" thickTop="1">
       <c r="A1" s="306" t="inlineStr">
         <is>
           <t>Survey Number</t>
@@ -5802,7 +5802,7 @@
       <c r="X1" s="69" t="n"/>
       <c r="Y1" s="70" t="n"/>
     </row>
-    <row r="2" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="2">
       <c r="A2" s="313" t="inlineStr">
         <is>
           <t>Date Surveyed</t>
@@ -5838,7 +5838,7 @@
       <c r="X2" s="65" t="n"/>
       <c r="Y2" s="71" t="n"/>
     </row>
-    <row r="3" ht="18" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="18" r="3" thickBot="1">
       <c r="A3" s="313" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -5873,7 +5873,7 @@
       <c r="X3" s="67" t="n"/>
       <c r="Y3" s="72" t="n"/>
     </row>
-    <row r="4" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="4" thickBot="1" thickTop="1">
       <c r="A4" s="313" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -5912,7 +5912,7 @@
       <c r="X4" s="322" t="n"/>
       <c r="Y4" s="324" t="n"/>
     </row>
-    <row r="5" ht="18" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="18" r="5" thickTop="1">
       <c r="A5" s="313" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -5957,7 +5957,7 @@
       <c r="X5" s="328" t="n"/>
       <c r="Y5" s="330" t="n"/>
     </row>
-    <row r="6" ht="18" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="18" r="6" thickBot="1">
       <c r="A6" s="313" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -6016,7 +6016,7 @@
       <c r="X6" s="332" t="n"/>
       <c r="Y6" s="336" t="n"/>
     </row>
-    <row r="7" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="7" thickBot="1" thickTop="1">
       <c r="A7" s="337" t="inlineStr">
         <is>
           <t>Level Of Posting</t>
@@ -6070,7 +6070,7 @@
       <c r="X7" s="314" t="n"/>
       <c r="Y7" s="315" t="n"/>
     </row>
-    <row r="8" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="8" thickBot="1" thickTop="1">
       <c r="A8" s="342" t="inlineStr">
         <is>
           <t>Building Material Background - cpm</t>
@@ -6127,7 +6127,7 @@
       <c r="X8" s="314" t="n"/>
       <c r="Y8" s="315" t="n"/>
     </row>
-    <row r="9" ht="18" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="18" r="9" thickTop="1">
       <c r="A9" s="310" t="inlineStr">
         <is>
           <t>Brick</t>
@@ -6176,7 +6176,7 @@
       <c r="X9" s="314" t="n"/>
       <c r="Y9" s="315" t="n"/>
     </row>
-    <row r="10" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="10">
       <c r="A10" s="351" t="inlineStr">
         <is>
           <t>Concrete</t>
@@ -6227,7 +6227,7 @@
       <c r="X10" s="314" t="n"/>
       <c r="Y10" s="315" t="n"/>
     </row>
-    <row r="11" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="11">
       <c r="A11" s="351" t="inlineStr">
         <is>
           <t>Linoleum</t>
@@ -6278,7 +6278,7 @@
       <c r="X11" s="314" t="n"/>
       <c r="Y11" s="315" t="n"/>
     </row>
-    <row r="12" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="12">
       <c r="A12" s="351" t="inlineStr">
         <is>
           <t>Drywall</t>
@@ -6325,7 +6325,7 @@
       <c r="X12" s="314" t="n"/>
       <c r="Y12" s="315" t="n"/>
     </row>
-    <row r="13" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="13">
       <c r="A13" s="351" t="inlineStr">
         <is>
           <t>Metal</t>
@@ -6372,7 +6372,7 @@
       <c r="X13" s="314" t="n"/>
       <c r="Y13" s="315" t="n"/>
     </row>
-    <row r="14" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="14">
       <c r="A14" s="351" t="inlineStr">
         <is>
           <t>Ceiling Tile</t>
@@ -6419,7 +6419,7 @@
       <c r="X14" s="314" t="n"/>
       <c r="Y14" s="315" t="n"/>
     </row>
-    <row r="15" ht="18" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="18" r="15" thickBot="1">
       <c r="A15" s="351" t="inlineStr">
         <is>
           <t>Wood</t>
@@ -6472,7 +6472,7 @@
       <c r="X15" s="338" t="n"/>
       <c r="Y15" s="339" t="n"/>
     </row>
-    <row r="16" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="16" thickBot="1" thickTop="1">
       <c r="A16" s="364" t="inlineStr">
         <is>
           <t>Asphalt</t>
@@ -6519,7 +6519,7 @@
       <c r="X16" s="367" t="n"/>
       <c r="Y16" s="327" t="n"/>
     </row>
-    <row r="17" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="17" thickBot="1" thickTop="1">
       <c r="A17" s="73" t="inlineStr">
         <is>
           <t>Note</t>
@@ -6578,7 +6578,7 @@
       <c r="X17" s="332" t="n"/>
       <c r="Y17" s="336" t="n"/>
     </row>
-    <row r="18" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="18" thickBot="1" thickTop="1">
       <c r="A18" s="73" t="n"/>
       <c r="B18" s="172" t="n"/>
       <c r="C18" s="172" t="n"/>
@@ -6605,7 +6605,7 @@
       <c r="X18" s="81" t="n"/>
       <c r="Y18" s="82" t="n"/>
     </row>
-    <row r="19" ht="49.9" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="49.9" r="19" thickBot="1" thickTop="1">
       <c r="A19" s="16" t="inlineStr">
         <is>
           <t>No</t>
@@ -6712,7 +6712,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="19.9" customFormat="1" customHeight="1" s="38" thickTop="1">
+    <row customFormat="1" customHeight="1" ht="19.9" r="20" s="38" thickTop="1">
       <c r="A20" s="23" t="n">
         <v>21</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="21" s="38">
       <c r="A21" s="39" t="n">
         <v>22</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="22" s="38">
       <c r="A22" s="50" t="n">
         <v>23</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="23" s="38">
       <c r="A23" s="39" t="n">
         <v>24</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="24" s="38">
       <c r="A24" s="50" t="n">
         <v>25</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="25" s="38">
       <c r="A25" s="39" t="n">
         <v>26</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="26" s="38">
       <c r="A26" s="50" t="n">
         <v>27</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="27" s="38">
       <c r="A27" s="39" t="n">
         <v>28</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="28" s="38">
       <c r="A28" s="50" t="n">
         <v>29</v>
       </c>
@@ -7387,7 +7387,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="29" s="38">
       <c r="A29" s="39" t="n">
         <v>30</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="30" s="38">
       <c r="A30" s="50" t="n"/>
       <c r="B30" s="376" t="n"/>
       <c r="C30" s="314" t="n"/>
@@ -7519,7 +7519,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="31" s="38">
       <c r="A31" s="39" t="n"/>
       <c r="B31" s="376" t="n"/>
       <c r="C31" s="314" t="n"/>
@@ -7576,7 +7576,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="32" s="38">
       <c r="A32" s="39" t="n"/>
       <c r="B32" s="376" t="n"/>
       <c r="C32" s="314" t="n"/>
@@ -7633,7 +7633,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="33" s="38">
       <c r="A33" s="50" t="n"/>
       <c r="B33" s="376" t="n"/>
       <c r="C33" s="314" t="n"/>
@@ -7690,7 +7690,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="34" s="38">
       <c r="A34" s="50" t="n"/>
       <c r="B34" s="376" t="n"/>
       <c r="C34" s="314" t="n"/>
@@ -7747,7 +7747,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="35" s="38">
       <c r="A35" s="39" t="n"/>
       <c r="B35" s="376" t="n"/>
       <c r="C35" s="314" t="n"/>
@@ -7804,7 +7804,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="36" s="38">
       <c r="A36" s="50" t="n"/>
       <c r="B36" s="376" t="n"/>
       <c r="C36" s="314" t="n"/>
@@ -7861,7 +7861,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="37" s="38">
       <c r="A37" s="50" t="n"/>
       <c r="B37" s="376" t="n"/>
       <c r="C37" s="314" t="n"/>
@@ -7918,7 +7918,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="38" s="38">
       <c r="A38" s="50" t="n"/>
       <c r="B38" s="376" t="n"/>
       <c r="C38" s="314" t="n"/>
@@ -7975,7 +7975,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" ht="19.9" customFormat="1" customHeight="1" s="38" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="19.9" r="39" s="38" thickBot="1">
       <c r="A39" s="52" t="n"/>
       <c r="B39" s="377" t="n"/>
       <c r="C39" s="338" t="n"/>
@@ -8032,7 +8032,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" ht="13.5" customHeight="1" thickTop="1"/>
+    <row customHeight="1" ht="13.5" r="40" thickTop="1"/>
   </sheetData>
   <mergeCells count="112">
     <mergeCell ref="A1:C1"/>
@@ -8149,8 +8149,8 @@
     <mergeCell ref="B36:G36"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
-  <pageSetup orientation="landscape" scale="75" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0" header="0" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape" scale="75"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
@@ -8170,17 +8170,17 @@
   </sheetPr>
   <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col width="7.28515625" customWidth="1" style="1" min="1" max="25"/>
-    <col width="9.140625" customWidth="1" style="1" min="26" max="16384"/>
+    <col customWidth="1" max="25" min="1" style="1" width="7.28515625"/>
+    <col customWidth="1" max="16384" min="26" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="18" r="1" thickTop="1">
       <c r="A1" s="108" t="n"/>
       <c r="B1" s="109" t="n"/>
       <c r="C1" s="109" t="n"/>
@@ -8207,7 +8207,7 @@
       <c r="X1" s="69" t="n"/>
       <c r="Y1" s="70" t="n"/>
     </row>
-    <row r="2" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="2">
       <c r="A2" s="111" t="n"/>
       <c r="B2" s="112" t="n"/>
       <c r="C2" s="112" t="n"/>
@@ -8234,7 +8234,7 @@
       <c r="X2" s="65" t="n"/>
       <c r="Y2" s="71" t="n"/>
     </row>
-    <row r="3" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="3">
       <c r="A3" s="111" t="n"/>
       <c r="B3" s="112" t="n"/>
       <c r="C3" s="112" t="n"/>
@@ -8261,7 +8261,7 @@
       <c r="X3" s="65" t="n"/>
       <c r="Y3" s="71" t="n"/>
     </row>
-    <row r="4" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="4">
       <c r="A4" s="111" t="n"/>
       <c r="B4" s="112" t="n"/>
       <c r="C4" s="112" t="n"/>
@@ -8288,7 +8288,7 @@
       <c r="X4" s="112" t="n"/>
       <c r="Y4" s="116" t="n"/>
     </row>
-    <row r="5" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="5">
       <c r="A5" s="111" t="n"/>
       <c r="B5" s="112" t="n"/>
       <c r="C5" s="112" t="n"/>
@@ -8315,7 +8315,7 @@
       <c r="X5" s="118" t="n"/>
       <c r="Y5" s="119" t="n"/>
     </row>
-    <row r="6" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="6">
       <c r="A6" s="111" t="n"/>
       <c r="B6" s="112" t="n"/>
       <c r="C6" s="112" t="n"/>
@@ -8342,7 +8342,7 @@
       <c r="X6" s="118" t="n"/>
       <c r="Y6" s="119" t="n"/>
     </row>
-    <row r="7" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="7">
       <c r="A7" s="111" t="n"/>
       <c r="B7" s="112" t="n"/>
       <c r="C7" s="112" t="n"/>
@@ -8369,7 +8369,7 @@
       <c r="X7" s="118" t="n"/>
       <c r="Y7" s="119" t="n"/>
     </row>
-    <row r="8" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="8">
       <c r="A8" s="111" t="n"/>
       <c r="B8" s="112" t="n"/>
       <c r="C8" s="112" t="n"/>
@@ -8396,7 +8396,7 @@
       <c r="X8" s="118" t="n"/>
       <c r="Y8" s="119" t="n"/>
     </row>
-    <row r="9" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="9">
       <c r="A9" s="111" t="n"/>
       <c r="B9" s="112" t="n"/>
       <c r="C9" s="112" t="n"/>
@@ -8423,7 +8423,7 @@
       <c r="X9" s="124" t="n"/>
       <c r="Y9" s="125" t="n"/>
     </row>
-    <row r="10" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="10">
       <c r="A10" s="111" t="n"/>
       <c r="B10" s="112" t="n"/>
       <c r="C10" s="112" t="n"/>
@@ -8450,7 +8450,7 @@
       <c r="X10" s="128" t="n"/>
       <c r="Y10" s="129" t="n"/>
     </row>
-    <row r="11" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="11">
       <c r="A11" s="111" t="n"/>
       <c r="B11" s="112" t="n"/>
       <c r="C11" s="112" t="n"/>
@@ -8477,7 +8477,7 @@
       <c r="X11" s="118" t="n"/>
       <c r="Y11" s="119" t="n"/>
     </row>
-    <row r="12" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="12">
       <c r="A12" s="111" t="n"/>
       <c r="B12" s="112" t="n"/>
       <c r="C12" s="112" t="n"/>
@@ -8504,7 +8504,7 @@
       <c r="X12" s="118" t="n"/>
       <c r="Y12" s="119" t="n"/>
     </row>
-    <row r="13" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="13">
       <c r="A13" s="111" t="n"/>
       <c r="B13" s="112" t="n"/>
       <c r="C13" s="112" t="n"/>
@@ -8531,7 +8531,7 @@
       <c r="X13" s="118" t="n"/>
       <c r="Y13" s="119" t="n"/>
     </row>
-    <row r="14" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="14">
       <c r="A14" s="111" t="n"/>
       <c r="B14" s="112" t="n"/>
       <c r="C14" s="112" t="n"/>
@@ -8558,7 +8558,7 @@
       <c r="X14" s="120" t="n"/>
       <c r="Y14" s="132" t="n"/>
     </row>
-    <row r="15" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="15">
       <c r="A15" s="111" t="n"/>
       <c r="B15" s="112" t="n"/>
       <c r="C15" s="112" t="n"/>
@@ -8585,7 +8585,7 @@
       <c r="X15" s="135" t="n"/>
       <c r="Y15" s="136" t="n"/>
     </row>
-    <row r="16" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="16">
       <c r="A16" s="111" t="n"/>
       <c r="B16" s="112" t="n"/>
       <c r="C16" s="112" t="n"/>
@@ -8612,7 +8612,7 @@
       <c r="X16" s="112" t="n"/>
       <c r="Y16" s="116" t="n"/>
     </row>
-    <row r="17" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="17">
       <c r="A17" s="88" t="n"/>
       <c r="B17" s="138" t="n"/>
       <c r="C17" s="138" t="n"/>
@@ -8639,7 +8639,7 @@
       <c r="X17" s="79" t="n"/>
       <c r="Y17" s="139" t="n"/>
     </row>
-    <row r="18" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="18">
       <c r="A18" s="88" t="n"/>
       <c r="B18" s="89" t="n"/>
       <c r="C18" s="89" t="n"/>
@@ -8666,7 +8666,7 @@
       <c r="X18" s="91" t="n"/>
       <c r="Y18" s="92" t="n"/>
     </row>
-    <row r="19" ht="49.9" customHeight="1">
+    <row customHeight="1" ht="49.9" r="19">
       <c r="A19" s="93" t="n"/>
       <c r="B19" s="140" t="n"/>
       <c r="C19" s="140" t="n"/>
@@ -8693,7 +8693,7 @@
       <c r="X19" s="95" t="n"/>
       <c r="Y19" s="96" t="n"/>
     </row>
-    <row r="20" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="20" s="38">
       <c r="A20" s="97" t="n"/>
       <c r="B20" s="98" t="n"/>
       <c r="C20" s="98" t="n"/>
@@ -8720,7 +8720,7 @@
       <c r="X20" s="101" t="n"/>
       <c r="Y20" s="102" t="n"/>
     </row>
-    <row r="21" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="21" s="38">
       <c r="A21" s="97" t="n"/>
       <c r="B21" s="98" t="n"/>
       <c r="C21" s="98" t="n"/>
@@ -8747,7 +8747,7 @@
       <c r="X21" s="101" t="n"/>
       <c r="Y21" s="102" t="n"/>
     </row>
-    <row r="22" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="22" s="38">
       <c r="A22" s="97" t="n"/>
       <c r="B22" s="98" t="n"/>
       <c r="C22" s="98" t="n"/>
@@ -8774,7 +8774,7 @@
       <c r="X22" s="101" t="n"/>
       <c r="Y22" s="102" t="n"/>
     </row>
-    <row r="23" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="23" s="38">
       <c r="A23" s="97" t="n"/>
       <c r="B23" s="98" t="n"/>
       <c r="C23" s="98" t="n"/>
@@ -8801,7 +8801,7 @@
       <c r="X23" s="101" t="n"/>
       <c r="Y23" s="102" t="n"/>
     </row>
-    <row r="24" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="24" s="38">
       <c r="A24" s="97" t="n"/>
       <c r="B24" s="98" t="n"/>
       <c r="C24" s="98" t="n"/>
@@ -8828,7 +8828,7 @@
       <c r="X24" s="101" t="n"/>
       <c r="Y24" s="102" t="n"/>
     </row>
-    <row r="25" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="25" s="38">
       <c r="A25" s="97" t="n"/>
       <c r="B25" s="98" t="n"/>
       <c r="C25" s="98" t="n"/>
@@ -8855,7 +8855,7 @@
       <c r="X25" s="101" t="n"/>
       <c r="Y25" s="102" t="n"/>
     </row>
-    <row r="26" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="26" s="38">
       <c r="A26" s="97" t="n"/>
       <c r="B26" s="98" t="n"/>
       <c r="C26" s="98" t="n"/>
@@ -8882,7 +8882,7 @@
       <c r="X26" s="101" t="n"/>
       <c r="Y26" s="102" t="n"/>
     </row>
-    <row r="27" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="27" s="38">
       <c r="A27" s="97" t="n"/>
       <c r="B27" s="98" t="n"/>
       <c r="C27" s="98" t="n"/>
@@ -8909,7 +8909,7 @@
       <c r="X27" s="101" t="n"/>
       <c r="Y27" s="102" t="n"/>
     </row>
-    <row r="28" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="28" s="38">
       <c r="A28" s="97" t="n"/>
       <c r="B28" s="98" t="n"/>
       <c r="C28" s="98" t="n"/>
@@ -8936,7 +8936,7 @@
       <c r="X28" s="101" t="n"/>
       <c r="Y28" s="102" t="n"/>
     </row>
-    <row r="29" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="29" s="38">
       <c r="A29" s="97" t="n"/>
       <c r="B29" s="98" t="n"/>
       <c r="C29" s="98" t="n"/>
@@ -8963,7 +8963,7 @@
       <c r="X29" s="101" t="n"/>
       <c r="Y29" s="102" t="n"/>
     </row>
-    <row r="30" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="30" s="38">
       <c r="A30" s="97" t="n"/>
       <c r="B30" s="98" t="n"/>
       <c r="C30" s="98" t="n"/>
@@ -8990,7 +8990,7 @@
       <c r="X30" s="101" t="n"/>
       <c r="Y30" s="102" t="n"/>
     </row>
-    <row r="31" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="31" s="38">
       <c r="A31" s="97" t="n"/>
       <c r="B31" s="98" t="n"/>
       <c r="C31" s="98" t="n"/>
@@ -9017,7 +9017,7 @@
       <c r="X31" s="101" t="n"/>
       <c r="Y31" s="102" t="n"/>
     </row>
-    <row r="32" ht="19.9" customFormat="1" customHeight="1" s="38" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="19.9" r="32" s="38" thickBot="1">
       <c r="A32" s="97" t="n"/>
       <c r="B32" s="98" t="n"/>
       <c r="C32" s="98" t="n"/>
@@ -9044,7 +9044,7 @@
       <c r="X32" s="101" t="n"/>
       <c r="Y32" s="102" t="n"/>
     </row>
-    <row r="33" ht="19.9" customFormat="1" customHeight="1" s="38" thickTop="1">
+    <row customFormat="1" customHeight="1" ht="19.9" r="33" s="38" thickTop="1">
       <c r="A33" s="306" t="inlineStr">
         <is>
           <t>Survey Number</t>
@@ -9079,7 +9079,7 @@
       <c r="X33" s="101" t="n"/>
       <c r="Y33" s="102" t="n"/>
     </row>
-    <row r="34" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="34" s="38">
       <c r="A34" s="313" t="inlineStr">
         <is>
           <t>Date Surveyed</t>
@@ -9112,7 +9112,7 @@
       <c r="X34" s="101" t="n"/>
       <c r="Y34" s="102" t="n"/>
     </row>
-    <row r="35" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="35" s="38">
       <c r="A35" s="313" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -9147,7 +9147,7 @@
       <c r="X35" s="101" t="n"/>
       <c r="Y35" s="102" t="n"/>
     </row>
-    <row r="36" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="36" s="38">
       <c r="A36" s="313" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -9182,7 +9182,7 @@
       <c r="X36" s="101" t="n"/>
       <c r="Y36" s="102" t="n"/>
     </row>
-    <row r="37" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="37" s="38">
       <c r="A37" s="313" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -9215,7 +9215,7 @@
       <c r="X37" s="101" t="n"/>
       <c r="Y37" s="102" t="n"/>
     </row>
-    <row r="38" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="38" s="38">
       <c r="A38" s="313" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -9250,7 +9250,7 @@
       <c r="X38" s="101" t="n"/>
       <c r="Y38" s="102" t="n"/>
     </row>
-    <row r="39" ht="19.9" customFormat="1" customHeight="1" s="38" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="19.9" r="39" s="38" thickBot="1">
       <c r="A39" s="337" t="inlineStr">
         <is>
           <t>Level Of Posting</t>
@@ -9285,7 +9285,7 @@
       <c r="X39" s="106" t="n"/>
       <c r="Y39" s="107" t="n"/>
     </row>
-    <row r="40" ht="13.5" customHeight="1" thickTop="1"/>
+    <row customHeight="1" ht="13.5" r="40" thickTop="1"/>
     <row r="41"/>
     <row r="42"/>
     <row r="43"/>
@@ -9313,8 +9313,8 @@
     <mergeCell ref="D38:G38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
-  <pageSetup orientation="landscape" scale="75" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0" header="0" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape" scale="75"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>

--- a/Output/Output Files/INIS-061620-1794.xlsx
+++ b/Output/Output Files/INIS-061620-1794.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12435" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scan and Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scan and Data (2)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Scan and Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Scan and Data (2)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Map" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_2360" localSheetId="2">#REF!</definedName>
-    <definedName name="_2360" localSheetId="1">#REF!</definedName>
+    <definedName localSheetId="2" name="_2360">#REF!</definedName>
+    <definedName localSheetId="1" name="_2360">#REF!</definedName>
     <definedName name="_2360">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Scan and Data'!$A$1:$Y$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Scan and Data (2)'!$A$1:$Y$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Map'!$A$1:$Y$39</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Area">'Scan and Data'!$A$1:$Y$39</definedName>
+    <definedName localSheetId="1" name="_xlnm.Print_Area">'Scan and Data (2)'!$A$1:$Y$39</definedName>
+    <definedName localSheetId="2" name="_xlnm.Print_Area">'Map'!$A$1:$Y$39</definedName>
   </definedNames>
   <calcPr calcId="152511" fullCalcOnLoad="1"/>
 </workbook>
@@ -25,9 +25,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt formatCode="m/d/yy;@" numFmtId="164"/>
+    <numFmt formatCode="m/d/yyyy;@" numFmtId="165"/>
+    <numFmt formatCode="0.0" numFmtId="166"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -1593,1221 +1593,1221 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="378">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="40" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="41" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="29" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="30" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="31" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="37" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="38" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="40" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="41" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="40" fillId="2" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="41" fillId="2" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="52" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="56" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="59" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="60" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="61" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="62" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="63" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="63" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="38" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="65" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="66" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="67" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="66" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="68" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="69" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="70" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="71" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="72" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="70" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="64" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="73" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="74" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="65" fillId="2" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="66" fillId="2" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="67" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="66" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="68" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="69" fillId="2" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="70" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="71" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="72" fillId="2" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="70" fillId="3" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="64" fillId="3" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="73" fillId="3" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="74" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="41" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="36" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="76" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="67" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="77" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="78" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="77" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="67" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="75" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="79" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="80" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="77" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="81" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="76" fillId="2" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="67" fillId="2" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="77" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="78" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="77" fillId="2" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="67" fillId="3" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="75" fillId="3" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="79" fillId="3" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="80" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="77" fillId="3" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="81" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="43" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="83" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="84" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="84" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="85" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="86" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="85" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="84" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="82" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="87" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="83" fillId="2" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="84" fillId="2" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="84" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="85" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="86" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="85" fillId="2" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="84" fillId="3" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="82" fillId="3" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="87" fillId="3" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="51" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="49" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="50" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="45" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="17" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="51" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="52" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="91" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="91" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="90" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="90" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="45" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="45" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="45" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="51" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="49" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="49" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="49" fillId="0" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="45" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf applyAlignment="1" borderId="45" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf applyAlignment="1" borderId="45" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="45" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="45" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="45" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="45" fillId="0" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="45" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="51" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="49" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="49" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="49" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="49" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="62" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="58" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="75" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="75" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="36" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="82" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="82" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="14" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="43" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="64" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="64" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="2" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="33" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="32" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="33" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="34" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="53" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="54" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="55" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="32" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="33" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="35" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="57" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="36" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="43" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="43" fillId="0" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="43" fillId="0" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="43" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="36" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="36" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="36" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="22" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="46" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="47" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="46" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="48" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="47" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="49" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="50" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="43" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="36" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="36" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="36" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="36" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="36" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="36" fillId="2" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="36" fillId="2" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="2" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="36" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="36" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="36" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="1" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="36" fillId="2" fontId="1" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="2" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="28" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="29" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="92" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf applyAlignment="1" applyProtection="1" borderId="36" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="39" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="1" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="28" fillId="2" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="29" fillId="2" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="92" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="34" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="33" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf applyAlignment="1" borderId="34" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="33" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="35" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="2" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="16" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="14" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="23" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="24" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="27" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="2" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="3" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="88" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="88" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="44" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="89" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="89" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="90" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="90" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="17" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="2" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="3" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="97" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="97" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="97" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="97" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="37" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="100" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="100" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="93" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="93" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="93" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="93" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="99" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="99" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="93" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="44" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="89" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="93" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="94" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="95" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="96" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="108" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="109" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="111" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="90" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="94" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="95" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="25" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="96" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="27" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="31" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="33" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="34" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="108" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="109" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="35" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="111" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="111" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="111" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="101" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="102" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="101" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="102" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="104" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="41" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="101" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="19" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="20" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="36" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="104" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="1" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="28" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="29" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="41" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="101" fillId="2" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="40" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="41" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="101" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="101" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="41" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="114" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="99" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="114" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="40" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="41" fillId="2" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="101" fillId="2" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="41" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="101" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="41" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="114" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="43" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="99" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="114" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="115" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="116" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="108" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="112" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="113" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="115" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="46" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="47" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="116" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="108" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="112" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="54" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="55" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="113" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="68" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="68" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="78" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="78" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="86" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="86" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
+      <protection hidden="0" locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 4 2" xfId="2"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2877,513 +2877,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <twoCellAnchor editAs="oneCell">
-    <from>
-      <col>21</col>
-      <colOff>46464</colOff>
-      <row>0</row>
-      <rowOff>55756</rowOff>
-    </from>
-    <to>
-      <col>24</col>
-      <colOff>450696</colOff>
-      <row>2</row>
-      <rowOff>181313</rowOff>
-    </to>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Picture 2"/>
-        <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cNvPicPr>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="10291647" y="55756"/>
-          <a:ext cx="1867829" cy="580898"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </twoCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <twoCellAnchor editAs="oneCell">
-    <from>
-      <col>21</col>
-      <colOff>46464</colOff>
-      <row>0</row>
-      <rowOff>55756</rowOff>
-    </from>
-    <to>
-      <col>24</col>
-      <colOff>450696</colOff>
-      <row>2</row>
-      <rowOff>181313</rowOff>
-    </to>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Picture 1"/>
-        <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cNvPicPr>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="10247739" y="55756"/>
-          <a:ext cx="1861557" cy="582757"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </twoCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <twoCellAnchor editAs="oneCell">
-    <from>
-      <col>21</col>
-      <colOff>46464</colOff>
-      <row>0</row>
-      <rowOff>55756</rowOff>
-    </from>
-    <to>
-      <col>24</col>
-      <colOff>450696</colOff>
-      <row>2</row>
-      <rowOff>181313</rowOff>
-    </to>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Picture 1"/>
-        <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cNvPicPr>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="10247739" y="55756"/>
-          <a:ext cx="1861557" cy="582757"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </twoCellAnchor>
-  <twoCellAnchor editAs="oneCell">
-    <from>
-      <col>0</col>
-      <colOff>302557</colOff>
-      <row>1</row>
-      <rowOff>11206</rowOff>
-    </from>
-    <to>
-      <col>7</col>
-      <colOff>40498</colOff>
-      <row>11</row>
-      <rowOff>103214</rowOff>
-    </to>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Picture 2"/>
-        <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cNvPicPr>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="302557" y="235324"/>
-          <a:ext cx="3110912" cy="2333184"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </twoCellAnchor>
-  <twoCellAnchor editAs="oneCell">
-    <from>
-      <col>14</col>
-      <colOff>262059</colOff>
-      <row>1</row>
-      <rowOff>15530</rowOff>
-    </from>
-    <to>
-      <col>21</col>
-      <colOff>0</colOff>
-      <row>11</row>
-      <rowOff>107538</rowOff>
-    </to>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="4" name="Picture 3"/>
-        <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cNvPicPr>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7008000" y="239648"/>
-          <a:ext cx="3110912" cy="2333184"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </twoCellAnchor>
-  <twoCellAnchor editAs="oneCell">
-    <from>
-      <col>7</col>
-      <colOff>266380</colOff>
-      <row>1</row>
-      <rowOff>8648</rowOff>
-    </from>
-    <to>
-      <col>14</col>
-      <colOff>4322</colOff>
-      <row>11</row>
-      <rowOff>100656</rowOff>
-    </to>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="5" name="Picture 4"/>
-        <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cNvPicPr>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3639351" y="232766"/>
-          <a:ext cx="3110912" cy="2333184"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </twoCellAnchor>
-  <twoCellAnchor editAs="oneCell">
-    <from>
-      <col>19</col>
-      <colOff>293114</colOff>
-      <row>20</row>
-      <rowOff>113821</rowOff>
-    </from>
-    <to>
-      <col>24</col>
-      <colOff>217033</colOff>
-      <row>33</row>
-      <rowOff>19850</rowOff>
-    </to>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="6" name="Picture 5"/>
-        <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cNvPicPr>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="9448320" y="5021997"/>
-          <a:ext cx="2333184" cy="3110912"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </twoCellAnchor>
-  <twoCellAnchor editAs="oneCell">
-    <from>
-      <col>0</col>
-      <colOff>308647</colOff>
-      <row>11</row>
-      <rowOff>162972</rowOff>
-    </from>
-    <to>
-      <col>7</col>
-      <colOff>46588</colOff>
-      <row>20</row>
-      <rowOff>53274</rowOff>
-    </to>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="7" name="Picture 6"/>
-        <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cNvPicPr>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="308647" y="2628266"/>
-          <a:ext cx="3110912" cy="2333184"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </twoCellAnchor>
-  <twoCellAnchor editAs="oneCell">
-    <from>
-      <col>0</col>
-      <colOff>301765</colOff>
-      <row>20</row>
-      <rowOff>144887</rowOff>
-    </from>
-    <to>
-      <col>7</col>
-      <colOff>39706</colOff>
-      <row>30</row>
-      <rowOff>12776</rowOff>
-    </to>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="8" name="Picture 7"/>
-        <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cNvPicPr>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId7"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="301765" y="5053063"/>
-          <a:ext cx="3110912" cy="2333184"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </twoCellAnchor>
-  <twoCellAnchor editAs="oneCell">
-    <from>
-      <col>7</col>
-      <colOff>261265</colOff>
-      <row>11</row>
-      <rowOff>160411</rowOff>
-    </from>
-    <to>
-      <col>13</col>
-      <colOff>481060</colOff>
-      <row>20</row>
-      <rowOff>50713</rowOff>
-    </to>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="9" name="Picture 8"/>
-        <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cNvPicPr>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId8"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3634236" y="2625705"/>
-          <a:ext cx="3110912" cy="2333184"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </twoCellAnchor>
-  <twoCellAnchor editAs="oneCell">
-    <from>
-      <col>14</col>
-      <colOff>265586</colOff>
-      <row>11</row>
-      <rowOff>164736</rowOff>
-    </from>
-    <to>
-      <col>21</col>
-      <colOff>3527</colOff>
-      <row>20</row>
-      <rowOff>55038</rowOff>
-    </to>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="10" name="Picture 9"/>
-        <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cNvPicPr>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId9"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7011527" y="2630030"/>
-          <a:ext cx="3110912" cy="2333184"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </twoCellAnchor>
-  <twoCellAnchor editAs="oneCell">
-    <from>
-      <col>7</col>
-      <colOff>269911</colOff>
-      <row>20</row>
-      <rowOff>146648</rowOff>
-    </from>
-    <to>
-      <col>14</col>
-      <colOff>7853</colOff>
-      <row>30</row>
-      <rowOff>14537</rowOff>
-    </to>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="11" name="Picture 10"/>
-        <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cNvPicPr>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId10"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3642882" y="5054824"/>
-          <a:ext cx="3110912" cy="2333184"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </twoCellAnchor>
-</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3653,19 +3146,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y39"/>
+  <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="J2" sqref="J2:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col width="7.28515625" customWidth="1" style="1" min="1" max="25"/>
-    <col width="9.140625" customWidth="1" style="1" min="26" max="16384"/>
+    <col customWidth="1" max="25" min="1" style="1" width="7.28515625"/>
+    <col customWidth="1" max="16384" min="26" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="18" r="1" thickTop="1">
       <c r="A1" s="306" t="inlineStr">
         <is>
           <t>Survey Number</t>
@@ -3708,7 +3201,7 @@
       <c r="X1" s="69" t="n"/>
       <c r="Y1" s="70" t="n"/>
     </row>
-    <row r="2" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="2">
       <c r="A2" s="313" t="inlineStr">
         <is>
           <t>Date Surveyed</t>
@@ -3744,7 +3237,7 @@
       <c r="X2" s="65" t="n"/>
       <c r="Y2" s="71" t="n"/>
     </row>
-    <row r="3" ht="18" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="18" r="3" thickBot="1">
       <c r="A3" s="313" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -3779,7 +3272,7 @@
       <c r="X3" s="67" t="n"/>
       <c r="Y3" s="72" t="n"/>
     </row>
-    <row r="4" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="4" thickBot="1" thickTop="1">
       <c r="A4" s="313" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -3818,7 +3311,7 @@
       <c r="X4" s="322" t="n"/>
       <c r="Y4" s="324" t="n"/>
     </row>
-    <row r="5" ht="18" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="18" r="5" thickTop="1">
       <c r="A5" s="313" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -3863,7 +3356,7 @@
       <c r="X5" s="328" t="n"/>
       <c r="Y5" s="330" t="n"/>
     </row>
-    <row r="6" ht="18" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="18" r="6" thickBot="1">
       <c r="A6" s="313" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -3922,7 +3415,7 @@
       <c r="X6" s="332" t="n"/>
       <c r="Y6" s="336" t="n"/>
     </row>
-    <row r="7" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="7" thickBot="1" thickTop="1">
       <c r="A7" s="337" t="inlineStr">
         <is>
           <t>Level Of Posting</t>
@@ -3976,7 +3469,7 @@
       <c r="X7" s="314" t="n"/>
       <c r="Y7" s="315" t="n"/>
     </row>
-    <row r="8" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="8" thickBot="1" thickTop="1">
       <c r="A8" s="342" t="inlineStr">
         <is>
           <t>Building Material Background - cpm</t>
@@ -4033,7 +3526,7 @@
       <c r="X8" s="314" t="n"/>
       <c r="Y8" s="315" t="n"/>
     </row>
-    <row r="9" ht="18" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="18" r="9" thickTop="1">
       <c r="A9" s="310" t="inlineStr">
         <is>
           <t>Brick</t>
@@ -4082,7 +3575,7 @@
       <c r="X9" s="314" t="n"/>
       <c r="Y9" s="315" t="n"/>
     </row>
-    <row r="10" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="10">
       <c r="A10" s="351" t="inlineStr">
         <is>
           <t>Concrete</t>
@@ -4133,7 +3626,7 @@
       <c r="X10" s="314" t="n"/>
       <c r="Y10" s="315" t="n"/>
     </row>
-    <row r="11" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="11">
       <c r="A11" s="351" t="inlineStr">
         <is>
           <t>Linoleum</t>
@@ -4184,7 +3677,7 @@
       <c r="X11" s="314" t="n"/>
       <c r="Y11" s="315" t="n"/>
     </row>
-    <row r="12" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="12">
       <c r="A12" s="351" t="inlineStr">
         <is>
           <t>Drywall</t>
@@ -4231,7 +3724,7 @@
       <c r="X12" s="314" t="n"/>
       <c r="Y12" s="315" t="n"/>
     </row>
-    <row r="13" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="13">
       <c r="A13" s="351" t="inlineStr">
         <is>
           <t>Metal</t>
@@ -4278,7 +3771,7 @@
       <c r="X13" s="314" t="n"/>
       <c r="Y13" s="315" t="n"/>
     </row>
-    <row r="14" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="14">
       <c r="A14" s="351" t="inlineStr">
         <is>
           <t>Ceiling Tile</t>
@@ -4325,7 +3818,7 @@
       <c r="X14" s="314" t="n"/>
       <c r="Y14" s="315" t="n"/>
     </row>
-    <row r="15" ht="18" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="18" r="15" thickBot="1">
       <c r="A15" s="351" t="inlineStr">
         <is>
           <t>Wood</t>
@@ -4378,7 +3871,7 @@
       <c r="X15" s="338" t="n"/>
       <c r="Y15" s="339" t="n"/>
     </row>
-    <row r="16" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="16" thickBot="1" thickTop="1">
       <c r="A16" s="364" t="inlineStr">
         <is>
           <t>Asphalt</t>
@@ -4425,7 +3918,7 @@
       <c r="X16" s="367" t="n"/>
       <c r="Y16" s="327" t="n"/>
     </row>
-    <row r="17" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="17" thickBot="1" thickTop="1">
       <c r="A17" s="73" t="inlineStr">
         <is>
           <t>Note</t>
@@ -4484,7 +3977,7 @@
       <c r="X17" s="332" t="n"/>
       <c r="Y17" s="336" t="n"/>
     </row>
-    <row r="18" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="18" thickBot="1" thickTop="1">
       <c r="A18" s="73" t="n"/>
       <c r="B18" s="172" t="n"/>
       <c r="C18" s="172" t="n"/>
@@ -4511,7 +4004,7 @@
       <c r="X18" s="81" t="n"/>
       <c r="Y18" s="82" t="n"/>
     </row>
-    <row r="19" ht="49.9" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="49.9" r="19" thickBot="1" thickTop="1">
       <c r="A19" s="16" t="inlineStr">
         <is>
           <t>No</t>
@@ -4618,7 +4111,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="19.9" customFormat="1" customHeight="1" s="38" thickTop="1">
+    <row customFormat="1" customHeight="1" ht="19.9" r="20" s="38" thickTop="1">
       <c r="A20" s="23" t="n">
         <v>1</v>
       </c>
@@ -4693,7 +4186,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="21" s="38">
       <c r="A21" s="39" t="n">
         <v>2</v>
       </c>
@@ -4768,7 +4261,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="22" s="38">
       <c r="A22" s="50" t="n">
         <v>3</v>
       </c>
@@ -4843,7 +4336,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="23" s="38">
       <c r="A23" s="39" t="n">
         <v>4</v>
       </c>
@@ -4918,7 +4411,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="24" s="38">
       <c r="A24" s="50" t="n">
         <v>5</v>
       </c>
@@ -4993,7 +4486,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="25" s="38">
       <c r="A25" s="39" t="n">
         <v>6</v>
       </c>
@@ -5068,7 +4561,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="26" s="38">
       <c r="A26" s="50" t="n">
         <v>7</v>
       </c>
@@ -5143,7 +4636,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="27" s="38">
       <c r="A27" s="39" t="n">
         <v>8</v>
       </c>
@@ -5218,7 +4711,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="28" s="38">
       <c r="A28" s="50" t="n">
         <v>9</v>
       </c>
@@ -5293,7 +4786,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="29" s="38">
       <c r="A29" s="39" t="n">
         <v>10</v>
       </c>
@@ -5368,7 +4861,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="30" s="38">
       <c r="A30" s="50" t="n">
         <v>11</v>
       </c>
@@ -5443,7 +4936,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="31" s="38">
       <c r="A31" s="39" t="n">
         <v>12</v>
       </c>
@@ -5518,7 +5011,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="32" s="38">
       <c r="A32" s="50" t="n">
         <v>13</v>
       </c>
@@ -5593,7 +5086,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="33" s="38">
       <c r="A33" s="39" t="n">
         <v>14</v>
       </c>
@@ -5668,7 +5161,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="34" s="38">
       <c r="A34" s="50" t="n">
         <v>15</v>
       </c>
@@ -5743,7 +5236,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="35" s="38">
       <c r="A35" s="39" t="n">
         <v>16</v>
       </c>
@@ -5818,7 +5311,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="36" s="38">
       <c r="A36" s="50" t="n">
         <v>17</v>
       </c>
@@ -5893,7 +5386,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="37" s="38">
       <c r="A37" s="39" t="n">
         <v>18</v>
       </c>
@@ -5968,7 +5461,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="38" s="38">
       <c r="A38" s="50" t="n">
         <v>19</v>
       </c>
@@ -6043,7 +5536,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" ht="19.9" customFormat="1" customHeight="1" s="38" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="19.9" r="39" s="38" thickBot="1">
       <c r="A39" s="52" t="n">
         <v>20</v>
       </c>
@@ -6118,7 +5611,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" ht="13.5" customHeight="1" thickTop="1"/>
+    <row customHeight="1" ht="13.5" r="40" thickTop="1"/>
   </sheetData>
   <mergeCells count="112">
     <mergeCell ref="A4:C4"/>
@@ -6235,8 +5728,8 @@
     <mergeCell ref="B25:G25"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
-  <pageSetup orientation="landscape" scale="75" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0" header="0" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape" scale="75"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
@@ -6245,7 +5738,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6255,19 +5747,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y39"/>
+  <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="D1" sqref="D1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col width="7.28515625" customWidth="1" style="1" min="1" max="25"/>
-    <col width="9.140625" customWidth="1" style="1" min="26" max="16384"/>
+    <col customWidth="1" max="25" min="1" style="1" width="7.28515625"/>
+    <col customWidth="1" max="16384" min="26" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="18" r="1" thickTop="1">
       <c r="A1" s="306" t="inlineStr">
         <is>
           <t>Survey Number</t>
@@ -6310,7 +5802,7 @@
       <c r="X1" s="69" t="n"/>
       <c r="Y1" s="70" t="n"/>
     </row>
-    <row r="2" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="2">
       <c r="A2" s="313" t="inlineStr">
         <is>
           <t>Date Surveyed</t>
@@ -6346,7 +5838,7 @@
       <c r="X2" s="65" t="n"/>
       <c r="Y2" s="71" t="n"/>
     </row>
-    <row r="3" ht="18" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="18" r="3" thickBot="1">
       <c r="A3" s="313" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -6381,7 +5873,7 @@
       <c r="X3" s="67" t="n"/>
       <c r="Y3" s="72" t="n"/>
     </row>
-    <row r="4" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="4" thickBot="1" thickTop="1">
       <c r="A4" s="313" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -6420,7 +5912,7 @@
       <c r="X4" s="322" t="n"/>
       <c r="Y4" s="324" t="n"/>
     </row>
-    <row r="5" ht="18" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="18" r="5" thickTop="1">
       <c r="A5" s="313" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -6465,7 +5957,7 @@
       <c r="X5" s="328" t="n"/>
       <c r="Y5" s="330" t="n"/>
     </row>
-    <row r="6" ht="18" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="18" r="6" thickBot="1">
       <c r="A6" s="313" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -6524,7 +6016,7 @@
       <c r="X6" s="332" t="n"/>
       <c r="Y6" s="336" t="n"/>
     </row>
-    <row r="7" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="7" thickBot="1" thickTop="1">
       <c r="A7" s="337" t="inlineStr">
         <is>
           <t>Level Of Posting</t>
@@ -6578,7 +6070,7 @@
       <c r="X7" s="314" t="n"/>
       <c r="Y7" s="315" t="n"/>
     </row>
-    <row r="8" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="8" thickBot="1" thickTop="1">
       <c r="A8" s="342" t="inlineStr">
         <is>
           <t>Building Material Background - cpm</t>
@@ -6635,7 +6127,7 @@
       <c r="X8" s="314" t="n"/>
       <c r="Y8" s="315" t="n"/>
     </row>
-    <row r="9" ht="18" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="18" r="9" thickTop="1">
       <c r="A9" s="310" t="inlineStr">
         <is>
           <t>Brick</t>
@@ -6684,7 +6176,7 @@
       <c r="X9" s="314" t="n"/>
       <c r="Y9" s="315" t="n"/>
     </row>
-    <row r="10" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="10">
       <c r="A10" s="351" t="inlineStr">
         <is>
           <t>Concrete</t>
@@ -6735,7 +6227,7 @@
       <c r="X10" s="314" t="n"/>
       <c r="Y10" s="315" t="n"/>
     </row>
-    <row r="11" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="11">
       <c r="A11" s="351" t="inlineStr">
         <is>
           <t>Linoleum</t>
@@ -6786,7 +6278,7 @@
       <c r="X11" s="314" t="n"/>
       <c r="Y11" s="315" t="n"/>
     </row>
-    <row r="12" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="12">
       <c r="A12" s="351" t="inlineStr">
         <is>
           <t>Drywall</t>
@@ -6833,7 +6325,7 @@
       <c r="X12" s="314" t="n"/>
       <c r="Y12" s="315" t="n"/>
     </row>
-    <row r="13" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="13">
       <c r="A13" s="351" t="inlineStr">
         <is>
           <t>Metal</t>
@@ -6880,7 +6372,7 @@
       <c r="X13" s="314" t="n"/>
       <c r="Y13" s="315" t="n"/>
     </row>
-    <row r="14" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="14">
       <c r="A14" s="351" t="inlineStr">
         <is>
           <t>Ceiling Tile</t>
@@ -6927,7 +6419,7 @@
       <c r="X14" s="314" t="n"/>
       <c r="Y14" s="315" t="n"/>
     </row>
-    <row r="15" ht="18" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="18" r="15" thickBot="1">
       <c r="A15" s="351" t="inlineStr">
         <is>
           <t>Wood</t>
@@ -6980,7 +6472,7 @@
       <c r="X15" s="338" t="n"/>
       <c r="Y15" s="339" t="n"/>
     </row>
-    <row r="16" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="16" thickBot="1" thickTop="1">
       <c r="A16" s="364" t="inlineStr">
         <is>
           <t>Asphalt</t>
@@ -7027,7 +6519,7 @@
       <c r="X16" s="367" t="n"/>
       <c r="Y16" s="327" t="n"/>
     </row>
-    <row r="17" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="17" thickBot="1" thickTop="1">
       <c r="A17" s="73" t="inlineStr">
         <is>
           <t>Note</t>
@@ -7086,7 +6578,7 @@
       <c r="X17" s="332" t="n"/>
       <c r="Y17" s="336" t="n"/>
     </row>
-    <row r="18" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="18" thickBot="1" thickTop="1">
       <c r="A18" s="73" t="n"/>
       <c r="B18" s="172" t="n"/>
       <c r="C18" s="172" t="n"/>
@@ -7113,7 +6605,7 @@
       <c r="X18" s="81" t="n"/>
       <c r="Y18" s="82" t="n"/>
     </row>
-    <row r="19" ht="49.9" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="49.9" r="19" thickBot="1" thickTop="1">
       <c r="A19" s="16" t="inlineStr">
         <is>
           <t>No</t>
@@ -7220,7 +6712,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="19.9" customFormat="1" customHeight="1" s="38" thickTop="1">
+    <row customFormat="1" customHeight="1" ht="19.9" r="20" s="38" thickTop="1">
       <c r="A20" s="23" t="n">
         <v>21</v>
       </c>
@@ -7295,7 +6787,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="21" s="38">
       <c r="A21" s="39" t="n">
         <v>22</v>
       </c>
@@ -7370,7 +6862,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="22" s="38">
       <c r="A22" s="50" t="n">
         <v>23</v>
       </c>
@@ -7445,7 +6937,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="23" s="38">
       <c r="A23" s="39" t="n">
         <v>24</v>
       </c>
@@ -7520,7 +7012,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="24" s="38">
       <c r="A24" s="50" t="n">
         <v>25</v>
       </c>
@@ -7595,7 +7087,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="25" s="38">
       <c r="A25" s="39" t="n">
         <v>26</v>
       </c>
@@ -7670,7 +7162,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="26" s="38">
       <c r="A26" s="50" t="n">
         <v>27</v>
       </c>
@@ -7745,7 +7237,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="27" s="38">
       <c r="A27" s="39" t="n">
         <v>28</v>
       </c>
@@ -7820,7 +7312,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="28" s="38">
       <c r="A28" s="50" t="n">
         <v>29</v>
       </c>
@@ -7895,7 +7387,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="29" s="38">
       <c r="A29" s="39" t="n">
         <v>30</v>
       </c>
@@ -7970,7 +7462,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="30" s="38">
       <c r="A30" s="50" t="n"/>
       <c r="B30" s="376" t="n"/>
       <c r="C30" s="314" t="n"/>
@@ -8027,7 +7519,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="31" s="38">
       <c r="A31" s="39" t="n"/>
       <c r="B31" s="376" t="n"/>
       <c r="C31" s="314" t="n"/>
@@ -8084,7 +7576,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="32" s="38">
       <c r="A32" s="39" t="n"/>
       <c r="B32" s="376" t="n"/>
       <c r="C32" s="314" t="n"/>
@@ -8141,7 +7633,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="33" s="38">
       <c r="A33" s="50" t="n"/>
       <c r="B33" s="376" t="n"/>
       <c r="C33" s="314" t="n"/>
@@ -8198,7 +7690,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="34" s="38">
       <c r="A34" s="50" t="n"/>
       <c r="B34" s="376" t="n"/>
       <c r="C34" s="314" t="n"/>
@@ -8255,7 +7747,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="35" s="38">
       <c r="A35" s="39" t="n"/>
       <c r="B35" s="376" t="n"/>
       <c r="C35" s="314" t="n"/>
@@ -8312,7 +7804,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="36" s="38">
       <c r="A36" s="50" t="n"/>
       <c r="B36" s="376" t="n"/>
       <c r="C36" s="314" t="n"/>
@@ -8369,7 +7861,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="37" s="38">
       <c r="A37" s="50" t="n"/>
       <c r="B37" s="376" t="n"/>
       <c r="C37" s="314" t="n"/>
@@ -8426,7 +7918,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="38" s="38">
       <c r="A38" s="50" t="n"/>
       <c r="B38" s="376" t="n"/>
       <c r="C38" s="314" t="n"/>
@@ -8483,7 +7975,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" ht="19.9" customFormat="1" customHeight="1" s="38" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="19.9" r="39" s="38" thickBot="1">
       <c r="A39" s="52" t="n"/>
       <c r="B39" s="377" t="n"/>
       <c r="C39" s="338" t="n"/>
@@ -8540,7 +8032,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" ht="13.5" customHeight="1" thickTop="1"/>
+    <row customHeight="1" ht="13.5" r="40" thickTop="1"/>
   </sheetData>
   <mergeCells count="112">
     <mergeCell ref="A1:C1"/>
@@ -8657,8 +8149,8 @@
     <mergeCell ref="B36:G36"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
-  <pageSetup orientation="landscape" scale="75" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0" header="0" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape" scale="75"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
@@ -8667,7 +8159,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8677,19 +8168,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y49"/>
+  <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col width="7.28515625" customWidth="1" style="1" min="1" max="25"/>
-    <col width="9.140625" customWidth="1" style="1" min="26" max="16384"/>
+    <col customWidth="1" max="25" min="1" style="1" width="7.28515625"/>
+    <col customWidth="1" max="16384" min="26" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="18" r="1" thickTop="1">
       <c r="A1" s="108" t="n"/>
       <c r="B1" s="109" t="n"/>
       <c r="C1" s="109" t="n"/>
@@ -8716,7 +8207,7 @@
       <c r="X1" s="69" t="n"/>
       <c r="Y1" s="70" t="n"/>
     </row>
-    <row r="2" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="2">
       <c r="A2" s="111" t="n"/>
       <c r="B2" s="112" t="n"/>
       <c r="C2" s="112" t="n"/>
@@ -8743,7 +8234,7 @@
       <c r="X2" s="65" t="n"/>
       <c r="Y2" s="71" t="n"/>
     </row>
-    <row r="3" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="3">
       <c r="A3" s="111" t="n"/>
       <c r="B3" s="112" t="n"/>
       <c r="C3" s="112" t="n"/>
@@ -8770,7 +8261,7 @@
       <c r="X3" s="65" t="n"/>
       <c r="Y3" s="71" t="n"/>
     </row>
-    <row r="4" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="4">
       <c r="A4" s="111" t="n"/>
       <c r="B4" s="112" t="n"/>
       <c r="C4" s="112" t="n"/>
@@ -8797,7 +8288,7 @@
       <c r="X4" s="112" t="n"/>
       <c r="Y4" s="116" t="n"/>
     </row>
-    <row r="5" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="5">
       <c r="A5" s="111" t="n"/>
       <c r="B5" s="112" t="n"/>
       <c r="C5" s="112" t="n"/>
@@ -8824,7 +8315,7 @@
       <c r="X5" s="118" t="n"/>
       <c r="Y5" s="119" t="n"/>
     </row>
-    <row r="6" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="6">
       <c r="A6" s="111" t="n"/>
       <c r="B6" s="112" t="n"/>
       <c r="C6" s="112" t="n"/>
@@ -8851,7 +8342,7 @@
       <c r="X6" s="118" t="n"/>
       <c r="Y6" s="119" t="n"/>
     </row>
-    <row r="7" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="7">
       <c r="A7" s="111" t="n"/>
       <c r="B7" s="112" t="n"/>
       <c r="C7" s="112" t="n"/>
@@ -8878,7 +8369,7 @@
       <c r="X7" s="118" t="n"/>
       <c r="Y7" s="119" t="n"/>
     </row>
-    <row r="8" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="8">
       <c r="A8" s="111" t="n"/>
       <c r="B8" s="112" t="n"/>
       <c r="C8" s="112" t="n"/>
@@ -8905,7 +8396,7 @@
       <c r="X8" s="118" t="n"/>
       <c r="Y8" s="119" t="n"/>
     </row>
-    <row r="9" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="9">
       <c r="A9" s="111" t="n"/>
       <c r="B9" s="112" t="n"/>
       <c r="C9" s="112" t="n"/>
@@ -8932,7 +8423,7 @@
       <c r="X9" s="124" t="n"/>
       <c r="Y9" s="125" t="n"/>
     </row>
-    <row r="10" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="10">
       <c r="A10" s="111" t="n"/>
       <c r="B10" s="112" t="n"/>
       <c r="C10" s="112" t="n"/>
@@ -8959,7 +8450,7 @@
       <c r="X10" s="128" t="n"/>
       <c r="Y10" s="129" t="n"/>
     </row>
-    <row r="11" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="11">
       <c r="A11" s="111" t="n"/>
       <c r="B11" s="112" t="n"/>
       <c r="C11" s="112" t="n"/>
@@ -8986,7 +8477,7 @@
       <c r="X11" s="118" t="n"/>
       <c r="Y11" s="119" t="n"/>
     </row>
-    <row r="12" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="12">
       <c r="A12" s="111" t="n"/>
       <c r="B12" s="112" t="n"/>
       <c r="C12" s="112" t="n"/>
@@ -9013,7 +8504,7 @@
       <c r="X12" s="118" t="n"/>
       <c r="Y12" s="119" t="n"/>
     </row>
-    <row r="13" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="13">
       <c r="A13" s="111" t="n"/>
       <c r="B13" s="112" t="n"/>
       <c r="C13" s="112" t="n"/>
@@ -9040,7 +8531,7 @@
       <c r="X13" s="118" t="n"/>
       <c r="Y13" s="119" t="n"/>
     </row>
-    <row r="14" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="14">
       <c r="A14" s="111" t="n"/>
       <c r="B14" s="112" t="n"/>
       <c r="C14" s="112" t="n"/>
@@ -9067,7 +8558,7 @@
       <c r="X14" s="120" t="n"/>
       <c r="Y14" s="132" t="n"/>
     </row>
-    <row r="15" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="15">
       <c r="A15" s="111" t="n"/>
       <c r="B15" s="112" t="n"/>
       <c r="C15" s="112" t="n"/>
@@ -9094,7 +8585,7 @@
       <c r="X15" s="135" t="n"/>
       <c r="Y15" s="136" t="n"/>
     </row>
-    <row r="16" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="16">
       <c r="A16" s="111" t="n"/>
       <c r="B16" s="112" t="n"/>
       <c r="C16" s="112" t="n"/>
@@ -9121,7 +8612,7 @@
       <c r="X16" s="112" t="n"/>
       <c r="Y16" s="116" t="n"/>
     </row>
-    <row r="17" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="17">
       <c r="A17" s="88" t="n"/>
       <c r="B17" s="138" t="n"/>
       <c r="C17" s="138" t="n"/>
@@ -9148,7 +8639,7 @@
       <c r="X17" s="79" t="n"/>
       <c r="Y17" s="139" t="n"/>
     </row>
-    <row r="18" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="18">
       <c r="A18" s="88" t="n"/>
       <c r="B18" s="89" t="n"/>
       <c r="C18" s="89" t="n"/>
@@ -9175,7 +8666,7 @@
       <c r="X18" s="91" t="n"/>
       <c r="Y18" s="92" t="n"/>
     </row>
-    <row r="19" ht="49.9" customHeight="1">
+    <row customHeight="1" ht="49.9" r="19">
       <c r="A19" s="93" t="n"/>
       <c r="B19" s="140" t="n"/>
       <c r="C19" s="140" t="n"/>
@@ -9202,7 +8693,7 @@
       <c r="X19" s="95" t="n"/>
       <c r="Y19" s="96" t="n"/>
     </row>
-    <row r="20" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="20" s="38">
       <c r="A20" s="97" t="n"/>
       <c r="B20" s="98" t="n"/>
       <c r="C20" s="98" t="n"/>
@@ -9229,7 +8720,7 @@
       <c r="X20" s="101" t="n"/>
       <c r="Y20" s="102" t="n"/>
     </row>
-    <row r="21" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="21" s="38">
       <c r="A21" s="97" t="n"/>
       <c r="B21" s="98" t="n"/>
       <c r="C21" s="98" t="n"/>
@@ -9256,7 +8747,7 @@
       <c r="X21" s="101" t="n"/>
       <c r="Y21" s="102" t="n"/>
     </row>
-    <row r="22" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="22" s="38">
       <c r="A22" s="97" t="n"/>
       <c r="B22" s="98" t="n"/>
       <c r="C22" s="98" t="n"/>
@@ -9283,7 +8774,7 @@
       <c r="X22" s="101" t="n"/>
       <c r="Y22" s="102" t="n"/>
     </row>
-    <row r="23" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="23" s="38">
       <c r="A23" s="97" t="n"/>
       <c r="B23" s="98" t="n"/>
       <c r="C23" s="98" t="n"/>
@@ -9310,7 +8801,7 @@
       <c r="X23" s="101" t="n"/>
       <c r="Y23" s="102" t="n"/>
     </row>
-    <row r="24" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="24" s="38">
       <c r="A24" s="97" t="n"/>
       <c r="B24" s="98" t="n"/>
       <c r="C24" s="98" t="n"/>
@@ -9337,7 +8828,7 @@
       <c r="X24" s="101" t="n"/>
       <c r="Y24" s="102" t="n"/>
     </row>
-    <row r="25" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="25" s="38">
       <c r="A25" s="97" t="n"/>
       <c r="B25" s="98" t="n"/>
       <c r="C25" s="98" t="n"/>
@@ -9364,7 +8855,7 @@
       <c r="X25" s="101" t="n"/>
       <c r="Y25" s="102" t="n"/>
     </row>
-    <row r="26" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="26" s="38">
       <c r="A26" s="97" t="n"/>
       <c r="B26" s="98" t="n"/>
       <c r="C26" s="98" t="n"/>
@@ -9391,7 +8882,7 @@
       <c r="X26" s="101" t="n"/>
       <c r="Y26" s="102" t="n"/>
     </row>
-    <row r="27" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="27" s="38">
       <c r="A27" s="97" t="n"/>
       <c r="B27" s="98" t="n"/>
       <c r="C27" s="98" t="n"/>
@@ -9418,7 +8909,7 @@
       <c r="X27" s="101" t="n"/>
       <c r="Y27" s="102" t="n"/>
     </row>
-    <row r="28" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="28" s="38">
       <c r="A28" s="97" t="n"/>
       <c r="B28" s="98" t="n"/>
       <c r="C28" s="98" t="n"/>
@@ -9445,7 +8936,7 @@
       <c r="X28" s="101" t="n"/>
       <c r="Y28" s="102" t="n"/>
     </row>
-    <row r="29" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="29" s="38">
       <c r="A29" s="97" t="n"/>
       <c r="B29" s="98" t="n"/>
       <c r="C29" s="98" t="n"/>
@@ -9472,7 +8963,7 @@
       <c r="X29" s="101" t="n"/>
       <c r="Y29" s="102" t="n"/>
     </row>
-    <row r="30" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="30" s="38">
       <c r="A30" s="97" t="n"/>
       <c r="B30" s="98" t="n"/>
       <c r="C30" s="98" t="n"/>
@@ -9499,7 +8990,7 @@
       <c r="X30" s="101" t="n"/>
       <c r="Y30" s="102" t="n"/>
     </row>
-    <row r="31" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="31" s="38">
       <c r="A31" s="97" t="n"/>
       <c r="B31" s="98" t="n"/>
       <c r="C31" s="98" t="n"/>
@@ -9526,7 +9017,7 @@
       <c r="X31" s="101" t="n"/>
       <c r="Y31" s="102" t="n"/>
     </row>
-    <row r="32" ht="19.9" customFormat="1" customHeight="1" s="38" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="19.9" r="32" s="38" thickBot="1">
       <c r="A32" s="97" t="n"/>
       <c r="B32" s="98" t="n"/>
       <c r="C32" s="98" t="n"/>
@@ -9553,7 +9044,7 @@
       <c r="X32" s="101" t="n"/>
       <c r="Y32" s="102" t="n"/>
     </row>
-    <row r="33" ht="19.9" customFormat="1" customHeight="1" s="38" thickTop="1">
+    <row customFormat="1" customHeight="1" ht="19.9" r="33" s="38" thickTop="1">
       <c r="A33" s="306" t="inlineStr">
         <is>
           <t>Survey Number</t>
@@ -9588,7 +9079,7 @@
       <c r="X33" s="101" t="n"/>
       <c r="Y33" s="102" t="n"/>
     </row>
-    <row r="34" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="34" s="38">
       <c r="A34" s="313" t="inlineStr">
         <is>
           <t>Date Surveyed</t>
@@ -9621,7 +9112,7 @@
       <c r="X34" s="101" t="n"/>
       <c r="Y34" s="102" t="n"/>
     </row>
-    <row r="35" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="35" s="38">
       <c r="A35" s="313" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -9656,7 +9147,7 @@
       <c r="X35" s="101" t="n"/>
       <c r="Y35" s="102" t="n"/>
     </row>
-    <row r="36" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="36" s="38">
       <c r="A36" s="313" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -9691,7 +9182,7 @@
       <c r="X36" s="101" t="n"/>
       <c r="Y36" s="102" t="n"/>
     </row>
-    <row r="37" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="37" s="38">
       <c r="A37" s="313" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -9724,7 +9215,7 @@
       <c r="X37" s="101" t="n"/>
       <c r="Y37" s="102" t="n"/>
     </row>
-    <row r="38" ht="19.9" customFormat="1" customHeight="1" s="38">
+    <row customFormat="1" customHeight="1" ht="19.9" r="38" s="38">
       <c r="A38" s="313" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -9759,7 +9250,7 @@
       <c r="X38" s="101" t="n"/>
       <c r="Y38" s="102" t="n"/>
     </row>
-    <row r="39" ht="19.9" customFormat="1" customHeight="1" s="38" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="19.9" r="39" s="38" thickBot="1">
       <c r="A39" s="337" t="inlineStr">
         <is>
           <t>Level Of Posting</t>
@@ -9794,16 +9285,7 @@
       <c r="X39" s="106" t="n"/>
       <c r="Y39" s="107" t="n"/>
     </row>
-    <row r="40" ht="13.5" customHeight="1" thickTop="1"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
+    <row customHeight="1" ht="13.5" r="40" thickTop="1"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A33:C33"/>
@@ -9822,8 +9304,8 @@
     <mergeCell ref="D38:G38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
-  <pageSetup orientation="landscape" scale="75" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0" header="0" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape" scale="75"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
@@ -9832,6 +9314,5 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>